--- a/data/trans_bre/P16A01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.65370616298281</v>
+        <v>-3.613731037772268</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.262047038688247</v>
+        <v>-1.232667378459484</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.409863364384997</v>
+        <v>1.304251368907043</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.039812754661198</v>
+        <v>-3.409638730178635</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4289426077483533</v>
+        <v>-0.4254346829570101</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1258141203692902</v>
+        <v>-0.1245778648278678</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1682019502273794</v>
+        <v>0.1436749090153749</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.425894861452068</v>
+        <v>-0.4456084264206767</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.425395750240603</v>
+        <v>2.529974562668422</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.274276453548372</v>
+        <v>6.83679787717923</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.368714628323364</v>
+        <v>9.394328862288779</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.404626780659757</v>
+        <v>7.486508106893131</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4377466711439504</v>
+        <v>0.4308010814585918</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9561809985814623</v>
+        <v>0.9439433195783055</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.187554815258347</v>
+        <v>2.121754601388055</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.532519322118891</v>
+        <v>2.296579672180038</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.4616689131253335</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-3.70142118786707</v>
+        <v>-3.701421187867067</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6183226461862277</v>
@@ -749,7 +749,7 @@
         <v>-0.0527469905340844</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.335852458727713</v>
+        <v>-0.3358524587277128</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4072627189526339</v>
+        <v>0.1335454959220712</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.39395558305076</v>
+        <v>-3.59158999116556</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.908288997489991</v>
+        <v>-3.71103562767833</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.406086187139161</v>
+        <v>-8.873447940938279</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.05681624671557214</v>
+        <v>0.01810119419603461</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3159084067183265</v>
+        <v>-0.3319847194605766</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3609364385191804</v>
+        <v>-0.3629483046343835</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5885378786116957</v>
+        <v>-0.5981554720736773</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.575852924550578</v>
+        <v>5.61451197706153</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.187689079637296</v>
+        <v>2.991476048613961</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.082361719036323</v>
+        <v>2.803629653812396</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8671456156063444</v>
+        <v>0.9232009248532149</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.549669240160289</v>
+        <v>1.525762485976472</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.397436434260881</v>
+        <v>0.3871627706698286</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4349062908684806</v>
+        <v>0.3863152907279723</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1797717333112377</v>
+        <v>0.1157553460764854</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.6420785177381594</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.7262513818901917</v>
+        <v>-0.7262513818901903</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2120753304390446</v>
@@ -849,7 +849,7 @@
         <v>0.08725470455123986</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.09845289603717812</v>
+        <v>-0.09845289603717793</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.401426897173729</v>
+        <v>-1.251641016620557</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.051162433018033</v>
+        <v>-3.950744989494017</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.049891631816783</v>
+        <v>-2.18892213320782</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.505171070801504</v>
+        <v>-3.743618522041334</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.198338968360365</v>
+        <v>-0.1857254186196677</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3977250364877082</v>
+        <v>-0.3864889957131544</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2307163574340542</v>
+        <v>-0.2596210987019517</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3870154772055502</v>
+        <v>-0.3944290890898356</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.231615496196851</v>
+        <v>4.351957327233621</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.7575902571976</v>
+        <v>1.814504849511831</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.479673224027411</v>
+        <v>3.344747369373785</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.804489298856506</v>
+        <v>1.783629533989371</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8412688263833757</v>
+        <v>0.897993331632242</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2666089706969924</v>
+        <v>0.2857920468870553</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5970019818216138</v>
+        <v>0.5394978678882075</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3051408009243582</v>
+        <v>0.2824511068549774</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.584205038235204</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.114181959348908</v>
+        <v>0.1141819593489093</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1800269589699188</v>
@@ -949,7 +949,7 @@
         <v>0.0926763906077209</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.01735561377166717</v>
+        <v>0.01735561377166738</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.624095400227154</v>
+        <v>-3.831227085768091</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.820969122363758</v>
+        <v>-3.32551430525855</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.089302964646611</v>
+        <v>-2.115258915725136</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.440368545871275</v>
+        <v>-2.562999750046306</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5528979201635247</v>
+        <v>-0.5605997446937857</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3782533412886284</v>
+        <v>-0.3598867349774341</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2928917443642218</v>
+        <v>-0.2862647604144687</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3051703746982969</v>
+        <v>-0.3096573590298005</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.647596978088681</v>
+        <v>1.866972878177956</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.835800228270642</v>
+        <v>2.813218923909289</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.458137663867796</v>
+        <v>3.742434283336956</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.344741162828047</v>
+        <v>2.510134951587802</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4279049009818837</v>
+        <v>0.5057219908549698</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4864736061600416</v>
+        <v>0.4886924690344525</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7417258537515236</v>
+        <v>0.800532764990194</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4630259557368756</v>
+        <v>0.5237505792416742</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.5947438406294525</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.374504658913768</v>
+        <v>3.37450465891377</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.2241761467270772</v>
@@ -1049,7 +1049,7 @@
         <v>0.07691113324655068</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5883955195325763</v>
+        <v>0.5883955195325766</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.70416806199517</v>
+        <v>-4.996565914869952</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.334472906310173</v>
+        <v>-7.197036119567013</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.22862505286224</v>
+        <v>-3.23796043283354</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.041808211347127</v>
+        <v>0.8497671110714987</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.554203712814666</v>
+        <v>-0.5829020655469332</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6266886348635673</v>
+        <v>-0.6223767666098688</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3427453261730338</v>
+        <v>-0.3574100206484159</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1430873377041567</v>
+        <v>0.1115244049284009</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.778030400081777</v>
+        <v>1.851917372416122</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.650565390070692</v>
+        <v>0.4088739123567963</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.181400330742999</v>
+        <v>4.176630621204535</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.914764866196133</v>
+        <v>5.879262630616799</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4032494451340227</v>
+        <v>0.4089033447427245</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09488090531172072</v>
+        <v>0.0709582168550439</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.723788071869221</v>
+        <v>0.6877299861138341</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.370136574904951</v>
+        <v>1.318498727305085</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-0.1618568779500812</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1216137943528386</v>
+        <v>0.1216137943528373</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.1532328068347667</v>
@@ -1149,7 +1149,7 @@
         <v>-0.02129147966273652</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.01524392982366304</v>
+        <v>0.01524392982366287</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-6.322898917711804</v>
+        <v>-6.236628339268722</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-7.591180478864996</v>
+        <v>-7.649942270727407</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.011971093099197</v>
+        <v>-4.020264781739239</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.241318310249038</v>
+        <v>-2.920061470221595</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4821146515126886</v>
+        <v>-0.4876777166112016</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5812448121527301</v>
+        <v>-0.5836876809776448</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4348959931942037</v>
+        <v>-0.4265577786249018</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3222681133518492</v>
+        <v>-0.3069482392203983</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.632783048154068</v>
+        <v>2.868154583211477</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.254774977684966</v>
+        <v>1.284125477187088</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.957103299507311</v>
+        <v>3.72709142228259</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.967696049000527</v>
+        <v>2.903769332708208</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3943098058036756</v>
+        <v>0.431644353233622</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1837904078494805</v>
+        <v>0.1895697358431325</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7527795938298338</v>
+        <v>0.6659917321579544</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4848682325982193</v>
+        <v>0.4704536074144369</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-17.8626415259696</v>
+        <v>-17.97229966824907</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-12.87956377555272</v>
+        <v>-12.47612884086262</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.266071887325037</v>
+        <v>-8.413035886752446</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.21746820060674</v>
+        <v>0.105218801428897</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.8589294749855625</v>
+        <v>-0.8536814238994055</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.6449150910813236</v>
+        <v>-0.6248551082488482</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.5576513358152928</v>
+        <v>-0.5588445773889305</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.002101496190976022</v>
+        <v>-0.007444331743829592</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-6.611069386226156</v>
+        <v>-6.545873883946542</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.9125995377233102</v>
+        <v>-1.336365939664626</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.065196134783213</v>
+        <v>1.933328488530255</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.171029889726208</v>
+        <v>6.01435800296264</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.4795455750311722</v>
+        <v>-0.4988719768980351</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.06654479785659483</v>
+        <v>-0.06965811526402846</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2592871599685616</v>
+        <v>0.2149104399400553</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.539563521065532</v>
+        <v>1.477014647141258</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1349,7 @@
         <v>0.08284537357038721</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.07576132804343329</v>
+        <v>0.07576132804343327</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.711476365191145</v>
+        <v>-1.848516377337497</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-2.603764104191439</v>
+        <v>-2.58972472087145</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.6089132452139678</v>
+        <v>-0.6693154118063223</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.7559738761700685</v>
+        <v>-0.7173595568875217</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2259228513920367</v>
+        <v>-0.244501971801703</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2517546957822935</v>
+        <v>-0.2526878345897547</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.07198216845185318</v>
+        <v>-0.07905150088331346</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.09380571743312735</v>
+        <v>-0.0914135642381267</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7862892395329533</v>
+        <v>0.733799006381563</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3066625097657593</v>
+        <v>0.285251776718243</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.013455741702373</v>
+        <v>1.986316457236846</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.772997617079914</v>
+        <v>1.867957441027557</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1271168489783965</v>
+        <v>0.1170871431458041</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03485954855299427</v>
+        <v>0.03115672697176034</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2838380150947195</v>
+        <v>0.2810799712842249</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2749641623571583</v>
+        <v>0.2827593165105718</v>
       </c>
     </row>
     <row r="28">
